--- a/biology/Zoologie/Franklinothrips/Franklinothrips.xlsx
+++ b/biology/Zoologie/Franklinothrips/Franklinothrips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franklinothrips est un genre d'insectes thysanoptères de la famille des Aeolothripidae, à distribution pantropicale.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reproduction
-La plupart des espèces sont apparemment bisexuées (on trouve des mâles et des femelles) et ne se reproduisent que dans de zones limitées. Une exception est Franklinothrips vespiformis, qui est unisexuée (on trouve surtout des femelles) et se reproduit dans de nombreux pays tropicaux. Seuls quelques mâles ont été produits dans des programmes d'élevage impliquant Franklinothrips vespiformis.
-Mimétisme
-Les femelles, qui se déplacent rapidement, sont souvent prises pour des fourmis ou des guêpes béthylides (superfamille des Chrysidoidea). En particulier, l'espèce africaine Franklinothrips megalops imite fortement des fourmis aussi bien par son comportement que par sa morphologie. Les mâles ressemblent moins aux fourmis de ce dernier point de vue : plus petits, ils portent pourtant des antennes plus longues et ont une taille moins resserrée.
-Alimentation
-Franklinothrips orizabensis est connue pour être incapable de survivre uniquement sur des plantes. Cette espèce est utilisée comme agent de lutte biologique contre les thrips dans des plantations d'avocatiers. Elle est commercialisée en Europe, ainsi que Franklinothrips vespiformis, comme agent de lutte contre les thrips dans les serres. Franklinothrips vespiformis  se nourrit aussi d'acariens, de nymphes d'espèces d'aleurodes et de larves d'une mouche agromyzide. Franklinothrips megalops a été utilisée pour lutter contre les thrips dans des « paysages intérieurs ».
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces sont apparemment bisexuées (on trouve des mâles et des femelles) et ne se reproduisent que dans de zones limitées. Une exception est Franklinothrips vespiformis, qui est unisexuée (on trouve surtout des femelles) et se reproduit dans de nombreux pays tropicaux. Seuls quelques mâles ont été produits dans des programmes d'élevage impliquant Franklinothrips vespiformis.
 </t>
         </is>
       </c>
@@ -544,10 +557,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mimétisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles, qui se déplacent rapidement, sont souvent prises pour des fourmis ou des guêpes béthylides (superfamille des Chrysidoidea). En particulier, l'espèce africaine Franklinothrips megalops imite fortement des fourmis aussi bien par son comportement que par sa morphologie. Les mâles ressemblent moins aux fourmis de ce dernier point de vue : plus petits, ils portent pourtant des antennes plus longues et ont une taille moins resserrée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Franklinothrips</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franklinothrips</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franklinothrips orizabensis est connue pour être incapable de survivre uniquement sur des plantes. Cette espèce est utilisée comme agent de lutte biologique contre les thrips dans des plantations d'avocatiers. Elle est commercialisée en Europe, ainsi que Franklinothrips vespiformis, comme agent de lutte contre les thrips dans les serres. Franklinothrips vespiformis  se nourrit aussi d'acariens, de nymphes d'espèces d'aleurodes et de larves d'une mouche agromyzide. Franklinothrips megalops a été utilisée pour lutter contre les thrips dans des « paysages intérieurs ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Franklinothrips</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franklinothrips</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Franklinothrips atlas Hood, 1957 — Congo, Rwanda.
@@ -575,64 +664,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Franklinothrips</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Franklinothrips</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Franklinothrips Back (d), 1912[1].
-Franklinothrips a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Franklinothrips Back (d), 1912.
+Franklinothrips a pour synonymes :
 Mitothrips Trybom, 1912
 Spathiothrips Richter, 1928</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Franklinothrips</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Franklinothrips</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique est dérivé du nom de famille de l'entomologiste américain Henry James Franklin (d) (1883-1958), qui a décrit les taxons de thrips dans les années 1900 ; le nom du genre de thrips, Frankliniella, a la même origine. Franklin a travaillé au département d'entomologie de l'université du Massachusetts d'Amherst dans les années 1930.
 </t>
